--- a/currency_invoice/currency_invoice_data.xlsx
+++ b/currency_invoice/currency_invoice_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493bd070ee0b5ab4/Documents/QMUL/End Point Assessment/Final Project/exchange_rates_and_trade/currency_invoice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{44B9518B-90FA-46F6-9776-471A2EA0C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E26F1D9-3598-4CBC-9FB4-1CB9B5C41EBE}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{44B9518B-90FA-46F6-9776-471A2EA0C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0361FF8-B920-4D38-B0C9-F7817C7EBCAD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{C22419A6-9B4B-4613-85E3-7C9D6BB8383A}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C22419A6-9B4B-4613-85E3-7C9D6BB8383A}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="24" r:id="rId1"/>
@@ -33,13 +33,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -239,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -389,10 +382,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,10 +415,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -413,33 +427,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,16 +1146,6 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-3075-421A-AD19-28CD758BA731}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1318,16 +1301,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-3075-421A-AD19-28CD758BA731}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
@@ -1638,8 +1611,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12086904587006821"/>
-                  <c:y val="0.11134024533660961"/>
+                  <c:x val="-0.12810226182688297"/>
+                  <c:y val="7.3399816709578444E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -2175,23 +2148,10 @@
         <c:axId val="745634016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0&quot;%&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4326,7 +4286,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4337,7 +4297,7 @@
   <dimension ref="A2:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4346,35 +4306,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17">
         <v>2013</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="17">
         <v>2014</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="17">
         <v>2015</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="17">
         <v>2016</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="17">
         <v>2017</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="17">
         <v>2018</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="17">
         <v>2019</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="17">
         <v>2020</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4418,8 +4378,8 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A3)</f>
         <v>60.1</v>
       </c>
-      <c r="K3" s="27">
-        <f>AVERAGE(H3:J3)</f>
+      <c r="K3" s="18">
+        <f t="shared" ref="K3:K12" si="0">AVERAGE(H3:J3)</f>
         <v>60.5</v>
       </c>
     </row>
@@ -4463,8 +4423,8 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A4)</f>
         <v>56.6</v>
       </c>
-      <c r="K4" s="27">
-        <f t="shared" ref="K4:K13" si="0">AVERAGE(H4:J4)</f>
+      <c r="K4" s="18">
+        <f t="shared" si="0"/>
         <v>56.199999999999996</v>
       </c>
     </row>
@@ -4508,7 +4468,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A5)</f>
         <v>53.9</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="18">
         <f t="shared" si="0"/>
         <v>61.300000000000004</v>
       </c>
@@ -4553,7 +4513,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A6)</f>
         <v>53.4</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="18">
         <f t="shared" si="0"/>
         <v>65.233333333333334</v>
       </c>
@@ -4598,7 +4558,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A7)</f>
         <v>47</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="18">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -4643,7 +4603,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A8)</f>
         <v>33.5</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="18">
         <f t="shared" si="0"/>
         <v>36.9</v>
       </c>
@@ -4688,7 +4648,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A9)</f>
         <v>42.4</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>49.199999999999996</v>
       </c>
@@ -4733,7 +4693,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A10)</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="18">
         <f t="shared" si="0"/>
         <v>34.033333333333339</v>
       </c>
@@ -4778,7 +4738,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A11)</f>
         <v>54.5</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="18">
         <f t="shared" si="0"/>
         <v>56.433333333333337</v>
       </c>
@@ -4823,7 +4783,7 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A12)</f>
         <v>39</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="18">
         <f t="shared" si="0"/>
         <v>32.6</v>
       </c>
@@ -4868,8 +4828,8 @@
         <f>SUMIFS('Non-EU Export Summary'!K$3:K$35,'Non-EU Export Summary'!$C$3:$C$35,"Pound sterling",'Non-EU Export Summary'!$A$3:$A$35,Charts!$A13)</f>
         <v>40.1</v>
       </c>
-      <c r="K13" s="27">
-        <f t="shared" si="0"/>
+      <c r="K13" s="18">
+        <f>AVERAGE(H13:J13)</f>
         <v>41.766666666666673</v>
       </c>
     </row>
@@ -4994,21 +4954,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5046,26 +5006,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>54.2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>31.5</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>11</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.6</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.7</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>11837</v>
       </c>
     </row>
@@ -5073,26 +5033,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>19.600000000000001</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>58.3</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>9.4</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>12.7</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1655</v>
       </c>
     </row>
@@ -5100,26 +5060,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>67</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>21.5</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>5.9</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>2.4</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>3.1</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>5250</v>
       </c>
     </row>
@@ -5127,26 +5087,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>89</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>10.8</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0.2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>35553</v>
       </c>
     </row>
@@ -5154,26 +5114,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>90.9</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>4.5</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>0.5</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>499</v>
       </c>
     </row>
@@ -5181,26 +5141,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>57.1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>26.5</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>11.1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0.2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>14031</v>
       </c>
     </row>
@@ -5208,26 +5168,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>70.2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>21.1</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>5.4</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>3.1</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>24992</v>
       </c>
     </row>
@@ -5235,26 +5195,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>65.7</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>23.2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>6.9</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.3</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>3.9</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>76732</v>
       </c>
     </row>
@@ -5262,26 +5222,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>62.3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>29.3</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>4.3</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>3.9</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>43622</v>
       </c>
     </row>
@@ -5289,125 +5249,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>77.8</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>0.2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>11.8</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>10.1</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>61472</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>69.5</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>18.5</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>4.5</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>2.7</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>4.7</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>275643</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -5440,22 +5400,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>27.5</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>58.4</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>9.6</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.1</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>4.5</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>4664</v>
       </c>
     </row>
@@ -5466,22 +5426,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>25.1</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>56.4</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>3.1</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.4</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>14.9</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>4975</v>
       </c>
     </row>
@@ -5492,22 +5452,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>35.4</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>62.7</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>0.8</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0.9</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.1</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>4297</v>
       </c>
     </row>
@@ -5518,22 +5478,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>28.4</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>71.400000000000006</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.2</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>9486</v>
       </c>
     </row>
@@ -5544,22 +5504,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>36.4</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>42.7</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>17.8</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="10">
         <v>1.6</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>1.5</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>74</v>
       </c>
     </row>
@@ -5570,22 +5530,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>50.6</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>34.1</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>4.7</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>1.9</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>8.9</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>26818</v>
       </c>
     </row>
@@ -5596,22 +5556,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>41.2</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>50.8</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>5.9</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0.1</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>14953</v>
       </c>
     </row>
@@ -5622,22 +5582,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>54.2</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>32</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>5.3</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>3.6</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>4.8</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>75711</v>
       </c>
     </row>
@@ -5648,22 +5608,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>35.1</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>57.1</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>3.3</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.3</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>4.2</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>30487</v>
       </c>
     </row>
@@ -5674,107 +5634,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>69.3</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>29</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>0</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>1.7</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>25611</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>48.2</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>41.2</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>1.8</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>4.7</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>197076</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -5782,11 +5737,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5809,21 +5769,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5861,26 +5821,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>54.1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>30.6</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>11.9</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.7</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.7</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>11687</v>
       </c>
     </row>
@@ -5888,26 +5848,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>18.399999999999999</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>61.1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>5.8</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>14.6</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1671</v>
       </c>
     </row>
@@ -5915,26 +5875,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>69</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>17.100000000000001</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>7.5</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>2.9</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>3.6</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>5629</v>
       </c>
     </row>
@@ -5942,26 +5902,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>86.3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>12.1</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>1.6</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>21351</v>
       </c>
     </row>
@@ -5969,26 +5929,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>90.7</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>3.7</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>5.2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>0.4</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>547</v>
       </c>
     </row>
@@ -5996,26 +5956,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>56.7</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>27</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>10.5</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0.3</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>5.5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>14663</v>
       </c>
     </row>
@@ -6023,26 +5983,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>70.8</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>21.7</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>4.7</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>2.6</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>27325</v>
       </c>
     </row>
@@ -6050,26 +6010,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>65.900000000000006</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>24.3</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>6.3</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.3</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>3.1</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>65755</v>
       </c>
     </row>
@@ -6077,26 +6037,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>61.4</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>30.9</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>3.4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>41940</v>
       </c>
     </row>
@@ -6104,125 +6064,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>84.9</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>0.2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>73725</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>70.900000000000006</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>18.399999999999999</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>4.3</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>3</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>3.5</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>264292</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -6255,22 +6215,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>24.1</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>60.1</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>10.4</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.1</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>5.4</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>4577</v>
       </c>
     </row>
@@ -6281,22 +6241,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>23.5</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>56.6</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>1.9</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.6</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>17.5</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>3825</v>
       </c>
     </row>
@@ -6307,22 +6267,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>43.9</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>53.9</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>1.4</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0.6</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.3</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>3869</v>
       </c>
     </row>
@@ -6333,22 +6293,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>46.2</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>53.4</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.3</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>4981</v>
       </c>
     </row>
@@ -6359,22 +6319,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>35.9</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>47</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>15.6</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>1.5</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>77</v>
       </c>
     </row>
@@ -6385,22 +6345,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>51.5</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>33.5</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>5.9</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>1.7</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>7.4</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>24450</v>
       </c>
     </row>
@@ -6411,22 +6371,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>49.8</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>42.4</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>6.5</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0.1</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>1.2</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>17628</v>
       </c>
     </row>
@@ -6437,22 +6397,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>51.8</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>33.700000000000003</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>5.4</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>4.5</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>60615</v>
       </c>
     </row>
@@ -6463,22 +6423,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>35.5</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>54.5</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>4.3</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.5</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>5.2</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>19577</v>
       </c>
     </row>
@@ -6489,107 +6449,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>54.1</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>39</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>0</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>7</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>22470</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>47.9</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>40.1</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>4.7</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>162070</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -6597,11 +6552,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6627,21 +6587,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -6679,26 +6639,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>52.1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>32.9</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.7</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>12494</v>
       </c>
     </row>
@@ -6706,26 +6666,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>19.899999999999999</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>60.5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>4.3</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>15.3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1560</v>
       </c>
     </row>
@@ -6733,26 +6693,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>66.8</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>20.5</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>7.1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>2.1</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>3.5</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>7755</v>
       </c>
     </row>
@@ -6760,26 +6720,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>47.9</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>13.4</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0.4</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>42241</v>
       </c>
     </row>
@@ -6787,26 +6747,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>92.5</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>4</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>2.8</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>0.6</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>717</v>
       </c>
     </row>
@@ -6814,26 +6774,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>50.9</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>35.700000000000003</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>8.6</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0.2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>4.5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>21807</v>
       </c>
     </row>
@@ -6841,26 +6801,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>73.3</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>19</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>5.4</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>2.1</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>33320</v>
       </c>
     </row>
@@ -6868,26 +6828,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>60.7</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>28.7</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>6.9</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.3</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>3.3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>74607</v>
       </c>
     </row>
@@ -6895,26 +6855,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>63.9</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>25.7</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>5.7</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.3</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>43461</v>
       </c>
     </row>
@@ -6922,125 +6882,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>71.599999999999994</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>0.4</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0.4</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>12.3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>2.1</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>44191</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>61.4</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>21</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>4.7</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>2.9</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>282153</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -7073,22 +7033,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>38.9</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>27</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.3</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>1.6</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>13252</v>
       </c>
     </row>
@@ -7099,22 +7059,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>12.9</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>48.7</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>10.3</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.2</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>14.3</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>7041</v>
       </c>
     </row>
@@ -7125,22 +7085,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>21.8</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>57.7</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.3</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>9563</v>
       </c>
     </row>
@@ -7151,22 +7111,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>37.700000000000003</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>29.7</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.5</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0.2</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>25462</v>
       </c>
     </row>
@@ -7177,22 +7137,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>19.7</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>20.5</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>43.5</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>0.7</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>606</v>
       </c>
     </row>
@@ -7203,22 +7163,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>29.8</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>30.3</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>24.3</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>1</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>4.7</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>52208</v>
       </c>
     </row>
@@ -7229,22 +7189,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>32.799999999999997</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>37.700000000000003</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>17.8</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>1.4</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>35281</v>
       </c>
     </row>
@@ -7255,22 +7215,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>36</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>35.4</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>15.8</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>0.1</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>5.4</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>111108</v>
       </c>
     </row>
@@ -7281,22 +7241,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>22.5</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>48.1</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>16.2</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.5</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>37704</v>
       </c>
     </row>
@@ -7307,107 +7267,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>45.5</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>8</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>3.3</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="10">
         <v>6.6</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>0</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>48085</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>33</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>14.7</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>1.2</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>3.5</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>340309</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -7415,11 +7370,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7442,49 +7402,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="17">
         <v>2013</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="17">
         <v>2014</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="17">
         <v>2015</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="17">
         <v>2016</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="17">
         <v>2017</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="17">
         <v>2018</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="17">
         <v>2019</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="17">
         <v>2020</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="str">
@@ -7528,7 +7488,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="str">
@@ -7572,7 +7532,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="str">
@@ -7616,7 +7576,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="9">
         <v>0</v>
       </c>
       <c r="B6" t="str">
@@ -7660,7 +7620,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="9">
         <v>0</v>
       </c>
       <c r="B7" t="str">
@@ -7704,7 +7664,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="9">
         <v>0</v>
       </c>
       <c r="B8" t="str">
@@ -7748,7 +7708,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" t="str">
@@ -7792,7 +7752,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
       <c r="B10" t="str">
@@ -7836,7 +7796,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
       <c r="B11" t="str">
@@ -7880,7 +7840,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12" t="str">
@@ -7924,7 +7884,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" t="str">
@@ -7968,7 +7928,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="9">
         <v>2</v>
       </c>
       <c r="B14" t="str">
@@ -8012,7 +7972,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="A15" s="9">
         <v>3</v>
       </c>
       <c r="B15" t="str">
@@ -8056,7 +8016,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
+      <c r="A16" s="9">
         <v>3</v>
       </c>
       <c r="B16" t="str">
@@ -8100,7 +8060,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="A17" s="9">
         <v>3</v>
       </c>
       <c r="B17" t="str">
@@ -8144,7 +8104,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="9">
         <v>4</v>
       </c>
       <c r="B18" t="str">
@@ -8188,7 +8148,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="9">
         <v>4</v>
       </c>
       <c r="B19" t="str">
@@ -8232,7 +8192,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
       <c r="B20" t="str">
@@ -8276,7 +8236,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="9">
         <v>5</v>
       </c>
       <c r="B21" t="str">
@@ -8320,7 +8280,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="9">
         <v>5</v>
       </c>
       <c r="B22" t="str">
@@ -8364,7 +8324,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
+      <c r="A23" s="9">
         <v>5</v>
       </c>
       <c r="B23" t="str">
@@ -8408,7 +8368,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
+      <c r="A24" s="9">
         <v>6</v>
       </c>
       <c r="B24" t="str">
@@ -8452,7 +8412,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="9">
         <v>6</v>
       </c>
       <c r="B25" t="str">
@@ -8496,7 +8456,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="9">
         <v>6</v>
       </c>
       <c r="B26" t="str">
@@ -8540,7 +8500,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="9">
         <v>7</v>
       </c>
       <c r="B27" t="str">
@@ -8584,7 +8544,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="9">
         <v>7</v>
       </c>
       <c r="B28" t="str">
@@ -8628,7 +8588,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="9">
         <v>7</v>
       </c>
       <c r="B29" t="str">
@@ -8672,7 +8632,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
+      <c r="A30" s="9">
         <v>8</v>
       </c>
       <c r="B30" t="str">
@@ -8716,7 +8676,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
+      <c r="A31" s="9">
         <v>8</v>
       </c>
       <c r="B31" t="str">
@@ -8760,7 +8720,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
+      <c r="A32" s="9">
         <v>8</v>
       </c>
       <c r="B32" t="str">
@@ -8804,7 +8764,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="18">
+      <c r="A33" s="9">
         <v>9</v>
       </c>
       <c r="B33" t="str">
@@ -8848,7 +8808,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="18">
+      <c r="A34" s="9">
         <v>9</v>
       </c>
       <c r="B34" t="str">
@@ -8892,7 +8852,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="18">
+      <c r="A35" s="9">
         <v>9</v>
       </c>
       <c r="B35" t="str">
@@ -8957,51 +8917,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="17">
         <v>2013</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="17">
         <v>2014</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="17">
         <v>2015</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="17">
         <v>2016</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="17">
         <v>2017</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="17">
         <v>2018</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="17">
         <v>2019</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="17">
         <v>2020</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="17">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="str">
@@ -9049,7 +9009,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="str">
@@ -9097,7 +9057,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="str">
@@ -9145,7 +9105,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="9">
         <v>0</v>
       </c>
       <c r="B6" t="str">
@@ -9193,7 +9153,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="9">
         <v>0</v>
       </c>
       <c r="B7" t="str">
@@ -9241,7 +9201,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="9">
         <v>0</v>
       </c>
       <c r="B8" t="str">
@@ -9289,7 +9249,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" t="str">
@@ -9337,7 +9297,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
       <c r="B10" t="str">
@@ -9385,7 +9345,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
       <c r="B11" t="str">
@@ -9433,7 +9393,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12" t="str">
@@ -9481,7 +9441,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" t="str">
@@ -9529,7 +9489,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="9">
         <v>2</v>
       </c>
       <c r="B14" t="str">
@@ -9577,7 +9537,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="A15" s="9">
         <v>3</v>
       </c>
       <c r="B15" t="str">
@@ -9625,7 +9585,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
+      <c r="A16" s="9">
         <v>3</v>
       </c>
       <c r="B16" t="str">
@@ -9673,7 +9633,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="A17" s="9">
         <v>3</v>
       </c>
       <c r="B17" t="str">
@@ -9721,7 +9681,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="9">
         <v>4</v>
       </c>
       <c r="B18" t="str">
@@ -9769,7 +9729,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="9">
         <v>4</v>
       </c>
       <c r="B19" t="str">
@@ -9817,7 +9777,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
       <c r="B20" t="str">
@@ -9865,7 +9825,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="9">
         <v>5</v>
       </c>
       <c r="B21" t="str">
@@ -9913,7 +9873,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="9">
         <v>5</v>
       </c>
       <c r="B22" t="str">
@@ -9961,7 +9921,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
+      <c r="A23" s="9">
         <v>5</v>
       </c>
       <c r="B23" t="str">
@@ -10009,7 +9969,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
+      <c r="A24" s="9">
         <v>6</v>
       </c>
       <c r="B24" t="str">
@@ -10057,7 +10017,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="9">
         <v>6</v>
       </c>
       <c r="B25" t="str">
@@ -10105,7 +10065,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="9">
         <v>6</v>
       </c>
       <c r="B26" t="str">
@@ -10153,7 +10113,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="9">
         <v>7</v>
       </c>
       <c r="B27" t="str">
@@ -10201,7 +10161,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="9">
         <v>7</v>
       </c>
       <c r="B28" t="str">
@@ -10249,7 +10209,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="9">
         <v>7</v>
       </c>
       <c r="B29" t="str">
@@ -10297,7 +10257,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
+      <c r="A30" s="9">
         <v>8</v>
       </c>
       <c r="B30" t="str">
@@ -10345,7 +10305,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
+      <c r="A31" s="9">
         <v>8</v>
       </c>
       <c r="B31" t="str">
@@ -10393,7 +10353,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
+      <c r="A32" s="9">
         <v>8</v>
       </c>
       <c r="B32" t="str">
@@ -10441,7 +10401,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="18">
+      <c r="A33" s="9">
         <v>9</v>
       </c>
       <c r="B33" t="str">
@@ -10489,7 +10449,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="18">
+      <c r="A34" s="9">
         <v>9</v>
       </c>
       <c r="B34" t="str">
@@ -10537,7 +10497,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="18">
+      <c r="A35" s="9">
         <v>9</v>
       </c>
       <c r="B35" t="str">
@@ -10606,21 +10566,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -10658,26 +10618,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>33.799999999999997</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>52.1</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>10.5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.8</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.9</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>9843</v>
       </c>
     </row>
@@ -10685,26 +10645,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>58.1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>20.3</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>17.399999999999999</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1411</v>
       </c>
     </row>
@@ -10712,26 +10672,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>27.7</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>58.6</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>5.8</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>5.9</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>5628</v>
       </c>
     </row>
@@ -10739,26 +10699,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>10.5</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>89.2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0.2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>41170</v>
       </c>
     </row>
@@ -10766,26 +10726,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>5</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>92.4</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>1.4</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0.3</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>0.9</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>409</v>
       </c>
     </row>
@@ -10793,26 +10753,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>28</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>56.2</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>8.9</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>2.7</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>13133</v>
       </c>
     </row>
@@ -10820,26 +10780,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>19.899999999999999</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>70.3</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>5</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>22528</v>
       </c>
     </row>
@@ -10847,26 +10807,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>26</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>59.3</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>8.6</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>5.6</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>57522</v>
       </c>
     </row>
@@ -10874,26 +10834,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>31.9</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>59.1</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>4.8</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.3</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>3.9</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>38339</v>
       </c>
     </row>
@@ -10901,125 +10861,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>1.9</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>55.4</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0.1</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>40.299999999999997</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>10923</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>22.7</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>65.599999999999994</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>5.2</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>2.8</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>3.6</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>200907</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -11052,22 +11012,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>66.099999999999994</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>18.5</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>11.1</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.2</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>4.2</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>3124</v>
       </c>
     </row>
@@ -11078,22 +11038,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>50.6</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>32.200000000000003</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>1.9</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.9</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>14.4</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>4324</v>
       </c>
     </row>
@@ -11104,22 +11064,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>69.3</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>28.8</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>1.7</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.2</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>3910</v>
       </c>
     </row>
@@ -11130,22 +11090,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>75.900000000000006</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>23.4</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.3</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0.4</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>10254</v>
       </c>
     </row>
@@ -11156,22 +11116,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>85.8</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>10.6</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>2.4</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="10">
         <v>0.1</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>89</v>
       </c>
     </row>
@@ -11182,22 +11142,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>45</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>40.700000000000003</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>1.3</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>8</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>21572</v>
       </c>
     </row>
@@ -11208,22 +11168,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>55.3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>40.5</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>3.1</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0.2</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>0.9</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>15393</v>
       </c>
     </row>
@@ -11234,22 +11194,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>57.3</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>36.5</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>0.3</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>1.4</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>66487</v>
       </c>
     </row>
@@ -11260,22 +11220,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>67.8</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>25.7</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>2.4</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.7</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>3.3</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>19809</v>
       </c>
     </row>
@@ -11286,102 +11246,103 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>67.099999999999994</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>32.6</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>0</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>0.3</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>54648</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>60.8</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>33.9</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>2.8</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>0.4</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>199609</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -11393,12 +11354,11 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11421,21 +11381,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -11473,26 +11433,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>53.6</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>33.4</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.9</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>9704</v>
       </c>
     </row>
@@ -11500,26 +11460,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>21.4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>56.4</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1396</v>
       </c>
     </row>
@@ -11527,26 +11487,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>62.3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>28</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>4.2</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>3.5</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>1.9</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>5016</v>
       </c>
     </row>
@@ -11554,26 +11514,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>90</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>10</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>37835</v>
       </c>
     </row>
@@ -11581,26 +11541,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>92.5</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>3.8</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>2.1</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0.4</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>1.2</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>358</v>
       </c>
     </row>
@@ -11608,26 +11568,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>57.3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>27.9</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>9.1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>1.3</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>4.5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>12412</v>
       </c>
     </row>
@@ -11635,26 +11595,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>66.2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>24.3</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>5.3</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>19078</v>
       </c>
     </row>
@@ -11662,26 +11622,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>60</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>24.9</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>10</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>4.5</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>59129</v>
       </c>
     </row>
@@ -11689,26 +11649,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>58.9</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>32.700000000000003</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>3.4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>39492</v>
       </c>
     </row>
@@ -11716,125 +11676,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>75.599999999999994</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0.1</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>21.7</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>1.5</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>14696</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>66.599999999999994</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>22.7</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>5.6</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>2</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>3.1</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>199115</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -11867,22 +11827,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>66.2</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>18.2</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>11.3</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.1</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>4.2</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>3421</v>
       </c>
     </row>
@@ -11893,22 +11853,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>49.5</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>33.799999999999997</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>2.5</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.7</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>13.6</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>4069</v>
       </c>
     </row>
@@ -11919,22 +11879,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>58.1</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>40.200000000000003</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>1.6</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.1</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>3654</v>
       </c>
     </row>
@@ -11945,22 +11905,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>76</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>23.8</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.2</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>7662</v>
       </c>
     </row>
@@ -11971,22 +11931,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>70.599999999999994</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>14.8</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>13.2</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>1.5</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>59</v>
       </c>
     </row>
@@ -11997,22 +11957,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>43.7</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>42.3</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>4.5</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>0.9</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>20657</v>
       </c>
     </row>
@@ -12023,22 +11983,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>57.2</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>35.5</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>5.9</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0.2</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>1.2</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>13492</v>
       </c>
     </row>
@@ -12049,22 +12009,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>56.7</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>36.200000000000003</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>0.4</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>2.7</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>63623</v>
       </c>
     </row>
@@ -12075,22 +12035,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>64.2</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>28.4</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>2.4</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>1</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>3.9</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>20602</v>
       </c>
     </row>
@@ -12101,107 +12061,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>59.9</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>40.1</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>0</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>0</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>26339</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>57.5</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>35.6</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>3.3</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>0.4</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>3.2</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>163579</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -12209,11 +12164,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12236,21 +12196,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -12288,26 +12248,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>55.2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>33.799999999999997</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>7.9</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.1</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>9821</v>
       </c>
     </row>
@@ -12315,26 +12275,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>22.6</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>57.4</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>2.1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>17.7</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1418</v>
       </c>
     </row>
@@ -12342,26 +12302,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>63.4</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>27.7</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>2.9</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>1.9</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>4358</v>
       </c>
     </row>
@@ -12369,26 +12329,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>83.7</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>16.3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>25650</v>
       </c>
     </row>
@@ -12396,26 +12356,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>93.6</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>3.3</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>1.5</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0.3</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>1.3</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>348</v>
       </c>
     </row>
@@ -12423,26 +12383,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>61.3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>24.9</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0.3</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>13636</v>
       </c>
     </row>
@@ -12450,26 +12410,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>68</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>24.1</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>2.8</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>18812</v>
       </c>
     </row>
@@ -12477,26 +12437,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>62.9</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>23.8</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>9.1</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.5</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>3.7</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>61413</v>
       </c>
     </row>
@@ -12504,26 +12464,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>61.3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>31.4</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>4.2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>2.9</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>41875</v>
       </c>
     </row>
@@ -12531,125 +12491,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>66.099999999999994</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0.1</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>27.8</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>5</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>14744</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>65.3</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>23.6</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>5.5</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>2.5</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>3.1</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>192074</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -12682,22 +12642,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>65.599999999999994</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>20.399999999999999</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>9.6</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.2</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>3353</v>
       </c>
     </row>
@@ -12708,22 +12668,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>49.6</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>33.9</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>3.5</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.2</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>12.7</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>4017</v>
       </c>
     </row>
@@ -12734,22 +12694,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>61.7</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>36.799999999999997</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>0.8</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0.6</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.1</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>3244</v>
       </c>
     </row>
@@ -12760,22 +12720,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>70.7</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>28.9</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.3</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>5751</v>
       </c>
     </row>
@@ -12786,22 +12746,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>58.3</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>14.2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>27</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>0.5</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>68</v>
       </c>
     </row>
@@ -12812,22 +12772,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>43.3</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>45.7</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>3.3</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>0.7</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>7</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>26578</v>
       </c>
     </row>
@@ -12838,22 +12798,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>57.2</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>35.9</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>5.6</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>1.3</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>12967</v>
       </c>
     </row>
@@ -12864,22 +12824,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>57</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>36.1</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>3.9</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>0.8</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>62365</v>
       </c>
     </row>
@@ -12890,22 +12850,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>60.9</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>32.4</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>3.1</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.1</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>3.7</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>23235</v>
       </c>
     </row>
@@ -12916,107 +12876,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>62.4</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>37.6</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>0</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>0</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>29664</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>56.9</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>36.700000000000003</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>3.1</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>0.5</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>2.9</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>171243</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -13024,11 +12979,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13051,21 +13011,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -13103,26 +13063,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>53.1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>34</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>9.9</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.7</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>10707</v>
       </c>
     </row>
@@ -13130,26 +13090,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>17.8</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>67.400000000000006</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>5.5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1479</v>
       </c>
     </row>
@@ -13157,26 +13117,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>62.6</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>26.9</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>4.7</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>3.7</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>4230</v>
       </c>
     </row>
@@ -13184,26 +13144,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>86.7</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>13.2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0.1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>21639</v>
       </c>
     </row>
@@ -13211,26 +13171,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>92</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>4.3</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0.1</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>1.6</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>373</v>
       </c>
     </row>
@@ -13238,26 +13198,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>61.8</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>25.1</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>7.7</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0.2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>5.2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>14275</v>
       </c>
     </row>
@@ -13265,26 +13225,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>68</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>24</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>5</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>2.8</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>19524</v>
       </c>
     </row>
@@ -13292,26 +13252,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>65.599999999999994</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>23.2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>7.7</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.4</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>3.2</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>70998</v>
       </c>
     </row>
@@ -13319,26 +13279,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>61</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>31.7</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>3.8</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>3.3</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>40454</v>
       </c>
     </row>
@@ -13346,125 +13306,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>76.400000000000006</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>1.3</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>14.1</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>8.1</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>47823</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>68.099999999999994</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>20.2</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>4.5</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>3.2</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>4</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>231502</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -13497,22 +13457,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>65.3</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>21.5</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>9</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.2</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>4</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>3864</v>
       </c>
     </row>
@@ -13523,22 +13483,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>52.8</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>29.5</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.7</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>12.6</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>4337</v>
       </c>
     </row>
@@ -13549,22 +13509,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>61.2</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>35.6</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>2.6</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.6</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>3614</v>
       </c>
     </row>
@@ -13575,22 +13535,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>71</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>28.8</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.2</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>5938</v>
       </c>
     </row>
@@ -13601,22 +13561,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>54.5</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>21.2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>23.7</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>0.6</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>94</v>
       </c>
     </row>
@@ -13627,22 +13587,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>43.2</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>45.4</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>4</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>1.8</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>5.6</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>24231</v>
       </c>
     </row>
@@ -13653,22 +13613,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>56.4</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>36.4</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>5</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0.5</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>1.7</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>11723</v>
       </c>
     </row>
@@ -13679,22 +13639,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>55</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>38.700000000000003</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>3.2</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>0.4</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>2.6</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>68242</v>
       </c>
     </row>
@@ -13705,22 +13665,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>60.6</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>31.2</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>3.6</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.9</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>3.7</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>21418</v>
       </c>
     </row>
@@ -13731,107 +13691,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>79.099999999999994</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>19.600000000000001</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>0</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>1.2</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>15990</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>57.4</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>35.5</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>3.2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>0.6</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>3.2</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>159451</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -13839,11 +13794,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13866,21 +13826,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -13918,26 +13878,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>55.1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>32.4</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>9.5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.6</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.4</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>11441</v>
       </c>
     </row>
@@ -13945,26 +13905,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>17.8</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>63.5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>7.2</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>11.4</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1586</v>
       </c>
     </row>
@@ -13972,26 +13932,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>65.099999999999994</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>23.2</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>4.3</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>3.1</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>4628</v>
       </c>
     </row>
@@ -13999,26 +13959,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>86.9</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>10.5</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>2.6</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>31244</v>
       </c>
     </row>
@@ -14026,26 +13986,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>94.2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>3.2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>1.6</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>483</v>
       </c>
     </row>
@@ -14053,26 +14013,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>60.1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>25</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>9.9</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0.2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>4.8</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>14843</v>
       </c>
     </row>
@@ -14080,26 +14040,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>68.900000000000006</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>23.1</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>5.2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>2.6</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>22838</v>
       </c>
     </row>
@@ -14107,26 +14067,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>66</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>22.6</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>7.5</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.4</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>3.6</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>75881</v>
       </c>
     </row>
@@ -14134,26 +14094,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>61</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>31.1</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>3.5</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>42674</v>
       </c>
     </row>
@@ -14161,125 +14121,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>67.400000000000006</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>0.5</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0.1</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>25.5</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>6.5</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>32910</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>67.099999999999994</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>20.399999999999999</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>4.8</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>3.8</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>3.8</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>238529</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -14312,22 +14272,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>65.099999999999994</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>22.1</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>8.6</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.1</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>4</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>4252</v>
       </c>
     </row>
@@ -14338,22 +14298,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>56.5</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>25.3</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.4</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>13.8</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>4574</v>
       </c>
     </row>
@@ -14364,22 +14324,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>63.8</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>33.700000000000003</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>1.9</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0.5</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.1</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>4560</v>
       </c>
     </row>
@@ -14390,22 +14350,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>67.599999999999994</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>32.299999999999997</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.1</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>9694</v>
       </c>
     </row>
@@ -14416,22 +14376,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>60.3</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>24.2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>6.3</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="10">
         <v>1.3</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>7.8</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>87</v>
       </c>
     </row>
@@ -14442,22 +14402,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>43.9</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>44</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>4.2</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>0.8</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>7.1</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>25084</v>
       </c>
     </row>
@@ -14468,22 +14428,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>55.5</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>37.299999999999997</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>5.3</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0.1</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>1.8</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>13029</v>
       </c>
     </row>
@@ -14494,22 +14454,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>45</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>42.7</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>3.7</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>4</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>74639</v>
       </c>
     </row>
@@ -14520,22 +14480,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>59.3</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>31.8</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>4</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.2</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>4.8</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>23951</v>
       </c>
     </row>
@@ -14546,107 +14506,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>54.8</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>37.9</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>1</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>6.3</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>19397</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>51.1</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>38.799999999999997</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>3.5</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>1.8</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>4.8</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>179265</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -14654,11 +14609,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14681,21 +14641,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -14733,26 +14693,26 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="10">
         <v>54.4</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>32.4</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>0.6</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="11">
         <v>11490</v>
       </c>
     </row>
@@ -14760,26 +14720,26 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="10">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>61.8</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>9.6</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>11.5</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="11">
         <v>1669</v>
       </c>
     </row>
@@ -14787,26 +14747,26 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10">
         <v>68.8</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>21.6</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>4.5</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>2.9</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="11">
         <v>4951</v>
       </c>
     </row>
@@ -14814,26 +14774,26 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19">
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
         <v>91</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="10">
         <v>0.2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="11">
         <v>39175</v>
       </c>
     </row>
@@ -14841,26 +14801,26 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>90.7</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="10">
         <v>5.6</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>2.8</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>0.8</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <v>452</v>
       </c>
     </row>
@@ -14868,26 +14828,26 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10">
         <v>59.2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>24.6</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>10.9</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0.2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="10">
         <v>5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <v>15148</v>
       </c>
     </row>
@@ -14895,26 +14855,26 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10">
         <v>68.599999999999994</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="10">
         <v>22.5</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <v>5.8</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>2.9</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <v>23637</v>
       </c>
     </row>
@@ -14922,26 +14882,26 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="10">
         <v>62.8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="10">
         <v>25.2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>7.4</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>0.4</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <v>4.2</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <v>74335</v>
       </c>
     </row>
@@ -14949,26 +14909,26 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="10">
         <v>60.8</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>30.5</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>4.7</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>0.3</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>3.7</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <v>41498</v>
       </c>
     </row>
@@ -14976,125 +14936,125 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19">
+      <c r="C13" s="19"/>
+      <c r="D13" s="10">
         <v>67.900000000000006</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>0.8</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="10">
         <v>0.1</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>28.3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="10">
         <v>2.8</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <v>24950</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13">
         <v>67.400000000000006</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>21.1</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="13">
         <v>3.3</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <v>3.1</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>237305</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -15127,22 +15087,22 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>21.7</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>63</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="10">
         <v>10.5</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="10">
         <v>0.1</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="10">
         <v>4.7</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>4003</v>
       </c>
     </row>
@@ -15153,22 +15113,22 @@
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>25.7</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>55.6</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="10">
         <v>3.5</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="10">
         <v>0.3</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="10">
         <v>14.8</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>4829</v>
       </c>
     </row>
@@ -15179,22 +15139,22 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>31.6</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>67.3</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="10">
         <v>0.8</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="10">
         <v>0.2</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="10">
         <v>0.1</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>4646</v>
       </c>
     </row>
@@ -15205,22 +15165,22 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="10">
         <v>29</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>70.900000000000006</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
         <v>0.1</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>11132</v>
       </c>
     </row>
@@ -15231,22 +15191,22 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>20</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>42.3</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="10">
         <v>26.6</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="10">
         <v>7.2</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="10">
         <v>3.9</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="14">
         <v>78</v>
       </c>
     </row>
@@ -15257,22 +15217,22 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="10">
         <v>43.4</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>43.1</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="10">
         <v>4.7</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="10">
         <v>7.6</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="14">
         <v>25135</v>
       </c>
     </row>
@@ -15283,22 +15243,22 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>38.1</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>54.4</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>5.7</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>1.7</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="14">
         <v>13666</v>
       </c>
     </row>
@@ -15309,22 +15269,22 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="10">
         <v>49.6</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>36.4</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="10">
         <v>4.5</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="10">
         <v>5.4</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="14">
         <v>75055</v>
       </c>
     </row>
@@ -15335,22 +15295,22 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>32.5</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>57.7</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <v>0.3</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <v>5.4</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="14">
         <v>23843</v>
       </c>
     </row>
@@ -15361,107 +15321,102 @@
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>60</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>29.8</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="10">
         <v>1.2</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="10">
         <v>9</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="14">
         <v>29887</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="22">
+      <c r="C35" s="13">
         <v>44.7</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="13">
         <v>44</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="13">
         <v>3.7</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="13">
         <v>2</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="13">
         <v>5.8</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="15">
         <v>192273</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -15469,11 +15424,16 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
